--- a/燕云十六声医院百业名单20250426.xlsx
+++ b/燕云十六声医院百业名单20250426.xlsx
@@ -1,58 +1,704 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
+  </bookViews>
   <sheets>
     <sheet name="积分表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+  <si>
+    <t>名次</t>
+  </si>
+  <si>
+    <t>玩家名字</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>荣誉称号</t>
+  </si>
+  <si>
+    <t>君臣藥</t>
+  </si>
+  <si>
+    <t>躲猫猫高手</t>
+  </si>
+  <si>
+    <t>知安安</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>张宁斓</t>
+  </si>
+  <si>
+    <t>季伯 、常</t>
+  </si>
+  <si>
+    <t>沈筱晓</t>
+  </si>
+  <si>
+    <t>长意意</t>
+  </si>
+  <si>
+    <t>幽坠</t>
+  </si>
+  <si>
+    <t>咕咕鸟</t>
+  </si>
+  <si>
+    <t>敖久川</t>
+  </si>
+  <si>
+    <t>五五二拾五</t>
+  </si>
+  <si>
+    <t>吃什么好</t>
+  </si>
+  <si>
+    <t>寻春客</t>
+  </si>
+  <si>
+    <t>千月与安</t>
+  </si>
+  <si>
+    <t>猫进被窝里</t>
+  </si>
+  <si>
+    <t>一两黄逗</t>
+  </si>
+  <si>
+    <t>抱桑</t>
+  </si>
+  <si>
+    <t>只想种菜</t>
+  </si>
+  <si>
+    <t>凝水寒</t>
+  </si>
+  <si>
+    <t>宁红玉</t>
+  </si>
+  <si>
+    <t>赫拉柯勒斯</t>
+  </si>
+  <si>
+    <t>天菜小熊猫</t>
+  </si>
+  <si>
+    <t>墨清诃</t>
+  </si>
+  <si>
+    <t>、泡…泡、</t>
+  </si>
+  <si>
+    <t>燕云沙包威</t>
+  </si>
+  <si>
+    <t>大音痴</t>
+  </si>
+  <si>
+    <t>暮那舍</t>
+  </si>
+  <si>
+    <t>小鱼块跑</t>
+  </si>
+  <si>
+    <t>檐蔓</t>
+  </si>
+  <si>
+    <t>解无歌</t>
+  </si>
+  <si>
+    <t>墨凡之</t>
+  </si>
+  <si>
+    <t>白日黑影</t>
+  </si>
+  <si>
+    <t>上杉雉素子</t>
+  </si>
+  <si>
+    <t>斜阳暮雨</t>
+  </si>
+  <si>
+    <t>卿抚夏</t>
+  </si>
+  <si>
+    <t>画中仙儿</t>
+  </si>
+  <si>
+    <t>星奈雪</t>
+  </si>
+  <si>
+    <t>郑雨棠</t>
+  </si>
+  <si>
+    <t>赏孤萍</t>
+  </si>
+  <si>
+    <t>此生唯爱</t>
+  </si>
+  <si>
+    <t>褚霧</t>
+  </si>
+  <si>
+    <t>顾烛城</t>
+  </si>
+  <si>
+    <t>欢時緒</t>
+  </si>
+  <si>
+    <t>休芳休</t>
+  </si>
+  <si>
+    <t>肥七公主</t>
+  </si>
+  <si>
+    <t>羽諳</t>
+  </si>
+  <si>
+    <t>谁用我名字了</t>
+  </si>
+  <si>
+    <t>星空座</t>
+  </si>
+  <si>
+    <t>大鸟转转转</t>
+  </si>
+  <si>
+    <t>椿黯</t>
+  </si>
+  <si>
+    <t>胤訑</t>
+  </si>
+  <si>
+    <t>羡羡纸</t>
+  </si>
+  <si>
+    <t>独仙芦</t>
+  </si>
+  <si>
+    <t>弋潮</t>
+  </si>
+  <si>
+    <t>雨宫簽</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>林慕ソ</t>
+  </si>
+  <si>
+    <t>、江漓 ソ</t>
+  </si>
+  <si>
+    <t>陆鹤衍</t>
+  </si>
+  <si>
+    <t>斋藤化蝶</t>
+  </si>
+  <si>
+    <t>琳的旧心愿</t>
+  </si>
+  <si>
+    <t>花虹、</t>
+  </si>
+  <si>
+    <t>洋猫猫</t>
+  </si>
+  <si>
+    <t>焚莲</t>
+  </si>
+  <si>
+    <t>谁明浪子芯</t>
+  </si>
+  <si>
+    <t>一湘潇</t>
+  </si>
+  <si>
+    <t>江旭真</t>
+  </si>
+  <si>
+    <t>字旗</t>
+  </si>
+  <si>
+    <t>空山弄玉</t>
+  </si>
+  <si>
+    <t>玄蟒</t>
+  </si>
+  <si>
+    <t>逐池</t>
+  </si>
+  <si>
+    <t>哈欠哈</t>
+  </si>
+  <si>
+    <t>邃靥</t>
+  </si>
+  <si>
+    <t>忘川汐落</t>
+  </si>
+  <si>
+    <t>谌蔚</t>
+  </si>
+  <si>
+    <t>霁茜长明</t>
+  </si>
+  <si>
+    <t>真人养脏汤</t>
+  </si>
+  <si>
+    <t>妖七、</t>
+  </si>
+  <si>
+    <t>黑哥魔法披风</t>
+  </si>
+  <si>
+    <t>济源首富</t>
+  </si>
+  <si>
+    <t>一尺槍</t>
+  </si>
+  <si>
+    <t>可爱猫酱</t>
+  </si>
+  <si>
+    <t>八月船歌</t>
+  </si>
+  <si>
+    <t>嬅沐霖</t>
+  </si>
+  <si>
+    <t>慕什么代</t>
+  </si>
+  <si>
+    <t>優越</t>
+  </si>
+  <si>
+    <t>小动物协会</t>
+  </si>
+  <si>
+    <t>非去泪</t>
+  </si>
+  <si>
+    <t>戈澜涯</t>
+  </si>
+  <si>
+    <t>逝不可逆</t>
+  </si>
+  <si>
+    <t>卜是山谷</t>
+  </si>
+  <si>
+    <t>乌夜砚</t>
+  </si>
+  <si>
+    <t>雨初雪</t>
+  </si>
+  <si>
+    <t>苏有川</t>
+  </si>
+  <si>
+    <t>雅思真题</t>
+  </si>
+  <si>
+    <t>花依尘</t>
+  </si>
+  <si>
+    <t>派克、</t>
+  </si>
+  <si>
+    <t>知寒尽</t>
+  </si>
+  <si>
+    <t>青山执筆</t>
+  </si>
+  <si>
+    <t>剑断乱羽山</t>
+  </si>
+  <si>
+    <t>×一一×</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +706,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,1434 +1331,1443 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>名次</v>
-      </c>
-      <c r="B1" t="str">
-        <v>玩家名字</v>
-      </c>
-      <c r="C1" t="str">
-        <v>积分</v>
-      </c>
-      <c r="D1" t="str">
-        <v>荣誉称号</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>君臣藥</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>躲猫猫高手</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>知安安</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>张宁斓</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>季伯 、常</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>沈筱晓</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>长意意</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>幽坠</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>咕咕鸟</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>敖久川</v>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>五五二拾五</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>吃什么好</v>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>寻春客</v>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>千月与安</v>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>猫进被窝里</v>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>一两黄逗</v>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>抱桑</v>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>只想种菜</v>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>凝水寒</v>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>宁红玉</v>
+      <c r="B20" t="s">
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>赫拉柯勒斯</v>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>天菜小熊猫</v>
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>墨清诃</v>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>、泡…泡、</v>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v>燕云沙包威</v>
+      <c r="B25" t="s">
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v>大音痴</v>
+      <c r="B26" t="s">
+        <v>30</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>暮那舍</v>
+      <c r="B27" t="s">
+        <v>31</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <v>小鱼块跑</v>
+      <c r="B28" t="s">
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <v>檐蔓</v>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <v>解无歌</v>
+      <c r="B30" t="s">
+        <v>34</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>墨凡之</v>
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <v>白日黑影</v>
+      <c r="B32" t="s">
+        <v>36</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <v>上杉雉素子</v>
+      <c r="B33" t="s">
+        <v>37</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <v>斜阳暮雨</v>
+      <c r="B34" t="s">
+        <v>38</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <v>卿抚夏</v>
+      <c r="B35" t="s">
+        <v>39</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <v>画中仙儿</v>
+      <c r="B36" t="s">
+        <v>40</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <v>星奈雪</v>
+      <c r="B37" t="s">
+        <v>41</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <v>郑雨棠</v>
+      <c r="B38" t="s">
+        <v>42</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <v>赏孤萍</v>
+      <c r="B39" t="s">
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <v>此生唯爱</v>
+      <c r="B40" t="s">
+        <v>44</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <v>褚霧</v>
+      <c r="B41" t="s">
+        <v>45</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <v>顾烛城</v>
+      <c r="B42" t="s">
+        <v>46</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <v>欢時緒</v>
+      <c r="B43" t="s">
+        <v>47</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <v>休芳休</v>
+      <c r="B44" t="s">
+        <v>48</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <v>肥七公主</v>
+      <c r="B45" t="s">
+        <v>49</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <v>羽諳</v>
+      <c r="B46" t="s">
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
-        <v>谁用我名字了</v>
+      <c r="B47" t="s">
+        <v>51</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
-        <v>星空座</v>
+      <c r="B48" t="s">
+        <v>52</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <v>大鸟转转转</v>
+      <c r="B49" t="s">
+        <v>53</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <v>椿黯</v>
+      <c r="B50" t="s">
+        <v>54</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
-        <v>胤訑</v>
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
-        <v>羡羡纸</v>
+      <c r="B52" t="s">
+        <v>56</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <v>独仙芦</v>
+      <c r="B53" t="s">
+        <v>57</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <v>弋潮</v>
+      <c r="B54" t="s">
+        <v>58</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
-        <v>雨宫簽</v>
+      <c r="B55" t="s">
+        <v>59</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
-        <v>苏州</v>
+      <c r="B56" t="s">
+        <v>60</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="57">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
-        <v>林慕ソ</v>
+      <c r="B57" t="s">
+        <v>61</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="str">
-        <v>、江漓 ソ</v>
+      <c r="B58" t="s">
+        <v>62</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="str">
-        <v>陆鹤衍</v>
+      <c r="B59" t="s">
+        <v>63</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="str">
-        <v>斋藤化蝶</v>
+      <c r="B60" t="s">
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
-        <v>琳的旧心愿</v>
+      <c r="B61" t="s">
+        <v>65</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="str">
-        <v>花虹、</v>
+      <c r="B62" t="s">
+        <v>66</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="str">
-        <v>洋猫猫</v>
+      <c r="B63" t="s">
+        <v>67</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="str">
-        <v>焚莲</v>
+      <c r="B64" t="s">
+        <v>68</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="str">
-        <v>谁明浪子芯</v>
+      <c r="B65" t="s">
+        <v>69</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="str">
-        <v>一湘潇</v>
+      <c r="B66" t="s">
+        <v>70</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="str">
-        <v>江旭真</v>
+      <c r="B67" t="s">
+        <v>71</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="str">
-        <v>字旗</v>
+      <c r="B68" t="s">
+        <v>72</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="str">
-        <v>空山弄玉</v>
+      <c r="B69" t="s">
+        <v>73</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
-        <v>玄蟒</v>
+      <c r="B70" t="s">
+        <v>74</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
-        <v>逐池</v>
+      <c r="B71" t="s">
+        <v>75</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="str">
-        <v>哈欠哈</v>
+      <c r="B72" t="s">
+        <v>76</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="str">
-        <v>邃靥</v>
+      <c r="B73" t="s">
+        <v>77</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="str">
-        <v>忘川汐落</v>
+      <c r="B74" t="s">
+        <v>78</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="str">
-        <v>谌蔚</v>
+      <c r="B75" t="s">
+        <v>79</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="76">
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="str">
-        <v>霁茜长明</v>
+      <c r="B76" t="s">
+        <v>80</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="str">
-        <v>真人养脏汤</v>
+      <c r="B77" t="s">
+        <v>81</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="str">
-        <v>妖七、</v>
+      <c r="B78" t="s">
+        <v>82</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="str">
-        <v>黑哥魔法披风</v>
+      <c r="B79" t="s">
+        <v>83</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="str">
-        <v>济源首富</v>
+      <c r="B80" t="s">
+        <v>84</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="str">
-        <v>一尺槍</v>
+      <c r="B81" t="s">
+        <v>85</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="str">
-        <v>可爱猫酱</v>
+      <c r="B82" t="s">
+        <v>86</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="str">
-        <v>八月船歌</v>
+      <c r="B83" t="s">
+        <v>87</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="84">
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="str">
-        <v>嬅沐霖</v>
+      <c r="B84" t="s">
+        <v>88</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="str">
-        <v>慕什么代</v>
+      <c r="B85" t="s">
+        <v>89</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="str">
-        <v>優越</v>
+      <c r="B86" t="s">
+        <v>90</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="str">
-        <v>小动物协会</v>
+      <c r="B87" t="s">
+        <v>91</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="str">
-        <v>非去泪</v>
+      <c r="B88" t="s">
+        <v>92</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="str">
-        <v>戈澜涯</v>
+      <c r="B89" t="s">
+        <v>93</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="str">
-        <v>逝不可逆</v>
+      <c r="B90" t="s">
+        <v>94</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="91">
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="str">
-        <v>卜是山谷</v>
+      <c r="B91" t="s">
+        <v>95</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="92">
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="str">
-        <v>乌夜砚</v>
+      <c r="B92" t="s">
+        <v>96</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="93">
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="str">
-        <v>雨初雪</v>
+      <c r="B93" t="s">
+        <v>97</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="94">
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="str">
-        <v>苏有川</v>
+      <c r="B94" t="s">
+        <v>98</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="str">
-        <v>雅思真题</v>
+      <c r="B95" t="s">
+        <v>99</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="str">
-        <v>花依尘</v>
+      <c r="B96" t="s">
+        <v>100</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="str">
-        <v>派克、</v>
+      <c r="B97" t="s">
+        <v>101</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="str">
-        <v>知寒尽</v>
+      <c r="B98" t="s">
+        <v>102</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="str">
-        <v>青山执筆</v>
+      <c r="B99" t="s">
+        <v>103</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="str">
-        <v>剑断乱羽山</v>
+      <c r="B100" t="s">
+        <v>104</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="str">
-        <v>×一一×</v>
+      <c r="B101" t="s">
+        <v>105</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" t="str">
-        <v/>
+      <c r="D101" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D101"/>
+    <ignoredError sqref="A1:D1 A2:B2 D2 A3:B3 D3 A4:B4 D4 A5:B5 D5 A6:B6 D6 A7:B7 A8:D12 A13:B13 D13 A14:D14 A15:B15 D15 A16:D16 A17:B17 A18:D21 A22:B22 A23:B23 D23 A24:B24 A25:B25 D25 A26:D27 A28:B28 D28 A29:B29 D29 A30:D30 A31:B31 D31 A32:D45 A46:B46 D46 A47:D101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>